--- a/Excel-XLSX/UN-NRU.xlsx
+++ b/Excel-XLSX/UN-NRU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>r3q4cG</t>
+    <t>4t20Wd</t>
   </si>
   <si>
     <t>2012</t>
@@ -243,6 +243,12 @@
     <t>21</t>
   </si>
   <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>69</t>
   </si>
   <si>
@@ -255,7 +261,7 @@
     <t>PSE</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>88</t>
@@ -267,9 +273,6 @@
     <t>IND</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -279,6 +282,9 @@
     <t>30</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>89</t>
   </si>
   <si>
@@ -291,9 +297,6 @@
     <t>IDN</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -309,6 +312,9 @@
     <t>38</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>91</t>
   </si>
   <si>
@@ -318,43 +324,43 @@
     <t>IRN</t>
   </si>
   <si>
-    <t>39</t>
+    <t>40</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>168</t>
   </si>
   <si>
     <t>196</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>191</t>
   </si>
   <si>
     <t>181</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>316</t>
   </si>
   <si>
-    <t>44</t>
+    <t>45</t>
   </si>
   <si>
     <t>203</t>
   </si>
   <si>
-    <t>45</t>
+    <t>46</t>
   </si>
   <si>
     <t>345</t>
@@ -363,24 +369,24 @@
     <t>209</t>
   </si>
   <si>
-    <t>46</t>
+    <t>47</t>
   </si>
   <si>
     <t>561</t>
   </si>
   <si>
-    <t>47</t>
+    <t>48</t>
   </si>
   <si>
     <t>508</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>49</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>92</t>
   </si>
   <si>
@@ -390,9 +396,6 @@
     <t>IRQ</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
@@ -414,6 +417,9 @@
     <t>59</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>104</t>
   </si>
   <si>
@@ -426,9 +432,6 @@
     <t>KWT</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>61</t>
   </si>
   <si>
@@ -441,6 +444,9 @@
     <t>64</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
     <t>109</t>
   </si>
   <si>
@@ -453,9 +459,6 @@
     <t>LBN</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>67</t>
   </si>
   <si>
@@ -471,6 +474,9 @@
     <t>73</t>
   </si>
   <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>112</t>
   </si>
   <si>
@@ -483,48 +489,48 @@
     <t>216</t>
   </si>
   <si>
-    <t>74</t>
+    <t>75</t>
   </si>
   <si>
     <t>219</t>
   </si>
   <si>
-    <t>75</t>
+    <t>76</t>
   </si>
   <si>
     <t>121</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
     <t>77</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
-    <t>79</t>
-  </si>
-  <si>
     <t>80</t>
   </si>
   <si>
+    <t>82</t>
+  </si>
+  <si>
     <t>102</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
     <t>83</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>127</t>
   </si>
   <si>
@@ -537,9 +543,6 @@
     <t>MYS</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
     <t>86</t>
   </si>
   <si>
@@ -567,12 +570,12 @@
     <t>94</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>115</t>
   </si>
   <si>
-    <t>95</t>
-  </si>
-  <si>
     <t>96</t>
   </si>
   <si>
@@ -615,6 +618,9 @@
     <t>108</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>147</t>
   </si>
   <si>
@@ -624,9 +630,6 @@
     <t>PAK</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>111</t>
   </si>
   <si>
@@ -651,6 +654,9 @@
     <t>119</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>172</t>
   </si>
   <si>
@@ -660,9 +666,6 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
@@ -681,6 +684,12 @@
     <t>129</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
     <t>174</t>
   </si>
   <si>
@@ -693,7 +702,7 @@
     <t>VNM</t>
   </si>
   <si>
-    <t>130</t>
+    <t>132</t>
   </si>
   <si>
     <t>177</t>
@@ -708,12 +717,6 @@
     <t>SDN</t>
   </si>
   <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
     <t>133</t>
   </si>
   <si>
@@ -729,6 +732,12 @@
     <t>139</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
     <t>185</t>
   </si>
   <si>
@@ -738,12 +747,6 @@
     <t>SYR</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
     <t>142</t>
   </si>
   <si>
@@ -756,6 +759,9 @@
     <t>146</t>
   </si>
   <si>
+    <t>148</t>
+  </si>
+  <si>
     <t>Stateless</t>
   </si>
   <si>
@@ -765,9 +771,6 @@
     <t>XXA</t>
   </si>
   <si>
-    <t>148</t>
-  </si>
-  <si>
     <t>149</t>
   </si>
   <si>
@@ -784,6 +787,12 @@
   </si>
   <si>
     <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1177,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V155"/>
+  <dimension ref="A1:V157"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1308,8 +1317,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1376,8 +1385,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1444,8 +1453,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1512,8 +1521,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1580,8 +1589,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1648,8 +1657,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1716,8 +1725,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -1784,8 +1793,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1852,8 +1861,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1920,8 +1929,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -2056,8 +2065,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -2124,8 +2133,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -2192,8 +2201,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -2260,8 +2269,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -2328,8 +2337,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -2396,8 +2405,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -2464,8 +2473,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -2532,8 +2541,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2618,19 +2627,19 @@
         <v>74</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2648,7 +2657,7 @@
         <v>31</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>31</v>
@@ -2668,8 +2677,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -2683,23 +2692,23 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="I23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
       </c>
@@ -2716,7 +2725,7 @@
         <v>31</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>31</v>
@@ -2736,8 +2745,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -2751,22 +2760,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2784,7 +2793,7 @@
         <v>31</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>31</v>
@@ -2804,8 +2813,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -2819,22 +2828,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2872,8 +2881,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -2890,19 +2899,19 @@
         <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2917,10 +2926,10 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>31</v>
@@ -2940,8 +2949,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -2955,22 +2964,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2988,7 +2997,7 @@
         <v>58</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>31</v>
@@ -3008,8 +3017,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -3026,19 +3035,19 @@
         <v>71</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3053,7 +3062,7 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>58</v>
@@ -3076,8 +3085,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -3094,19 +3103,19 @@
         <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -3121,10 +3130,10 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>31</v>
@@ -3144,8 +3153,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -3162,19 +3171,19 @@
         <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -3189,7 +3198,7 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>44</v>
@@ -3212,8 +3221,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -3227,22 +3236,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3257,7 +3266,7 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>44</v>
@@ -3280,8 +3289,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -3295,22 +3304,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3325,11 +3334,11 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O32" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="P32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3348,8 +3357,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -3363,22 +3372,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3416,8 +3425,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -3434,19 +3443,19 @@
         <v>68</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3484,8 +3493,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -3499,22 +3508,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3532,7 +3541,7 @@
         <v>44</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>31</v>
@@ -3552,8 +3561,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -3570,19 +3579,19 @@
         <v>64</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3597,7 +3606,7 @@
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>44</v>
@@ -3620,8 +3629,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -3635,22 +3644,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3665,7 +3674,7 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>44</v>
@@ -3688,8 +3697,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -3703,22 +3712,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3756,8 +3765,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -3771,22 +3780,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3801,10 +3810,10 @@
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>31</v>
@@ -3824,8 +3833,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -3839,22 +3848,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3872,7 +3881,7 @@
         <v>31</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>31</v>
@@ -3892,8 +3901,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -3910,19 +3919,19 @@
         <v>102</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3937,11 +3946,11 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O41" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="P41" s="2" t="s">
         <v>31</v>
       </c>
@@ -3960,8 +3969,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -3978,19 +3987,19 @@
         <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4005,11 +4014,11 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="P42" s="2" t="s">
         <v>31</v>
       </c>
@@ -4028,8 +4037,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -4043,40 +4052,40 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="O43" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>31</v>
@@ -4096,8 +4105,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -4111,41 +4120,41 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="P44" s="2" t="s">
         <v>31</v>
       </c>
@@ -4164,8 +4173,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -4182,19 +4191,19 @@
         <v>110</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4209,10 +4218,10 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>31</v>
@@ -4232,8 +4241,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -4250,19 +4259,19 @@
         <v>112</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4277,11 +4286,11 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="O46" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="P46" s="2" t="s">
         <v>31</v>
       </c>
@@ -4300,8 +4309,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -4315,41 +4324,41 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N47" s="2" t="s">
+      <c r="O47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O47" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="P47" s="2" t="s">
         <v>31</v>
       </c>
@@ -4368,8 +4377,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48">
@@ -4386,19 +4395,19 @@
         <v>117</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4416,7 +4425,7 @@
         <v>118</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>31</v>
@@ -4436,8 +4445,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -4454,19 +4463,19 @@
         <v>119</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4481,10 +4490,10 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>31</v>
@@ -4519,22 +4528,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4549,10 +4558,10 @@
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>31</v>
@@ -4572,8 +4581,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -4587,22 +4596,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4620,7 +4629,7 @@
         <v>31</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>31</v>
@@ -4640,8 +4649,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52">
@@ -4655,22 +4664,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="I52" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4685,10 +4694,10 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>31</v>
@@ -4708,8 +4717,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53">
@@ -4726,19 +4735,19 @@
         <v>39</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4753,10 +4762,10 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>31</v>
@@ -4776,8 +4785,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -4791,22 +4800,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4844,8 +4853,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55">
@@ -4859,22 +4868,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4889,10 +4898,10 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>31</v>
@@ -4912,8 +4921,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -4927,22 +4936,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4957,10 +4966,10 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>31</v>
@@ -4980,8 +4989,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -4995,22 +5004,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5025,7 +5034,7 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>65</v>
@@ -5048,8 +5057,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -5063,22 +5072,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5093,10 +5102,10 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>31</v>
@@ -5116,8 +5125,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -5131,22 +5140,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5161,7 +5170,7 @@
         <v>30</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>31</v>
@@ -5184,8 +5193,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -5199,22 +5208,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5229,7 +5238,7 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>31</v>
@@ -5252,8 +5261,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -5267,22 +5276,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="I61" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5320,8 +5329,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -5335,22 +5344,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5388,8 +5397,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -5403,22 +5412,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5456,8 +5465,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64">
@@ -5471,22 +5480,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5524,8 +5533,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -5539,22 +5548,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5569,10 +5578,10 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>31</v>
@@ -5592,8 +5601,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66">
@@ -5607,22 +5616,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="I66" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5637,10 +5646,10 @@
         <v>30</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>31</v>
@@ -5660,8 +5669,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -5678,19 +5687,19 @@
         <v>32</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5728,8 +5737,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68">
@@ -5743,22 +5752,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5796,8 +5805,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -5811,22 +5820,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5841,10 +5850,10 @@
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>31</v>
@@ -5864,8 +5873,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -5879,22 +5888,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5932,8 +5941,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71">
@@ -5947,22 +5956,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -6000,8 +6009,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72">
@@ -6015,22 +6024,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6068,8 +6077,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -6086,19 +6095,19 @@
         <v>35</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6113,7 +6122,7 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>31</v>
@@ -6136,8 +6145,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74">
@@ -6151,22 +6160,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6181,10 +6190,10 @@
         <v>30</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>31</v>
@@ -6204,8 +6213,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75">
@@ -6219,22 +6228,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="I75" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6272,8 +6281,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76">
@@ -6290,19 +6299,19 @@
         <v>157</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6340,8 +6349,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77">
@@ -6358,19 +6367,19 @@
         <v>159</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6385,10 +6394,10 @@
         <v>30</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>31</v>
@@ -6408,8 +6417,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -6423,22 +6432,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6456,7 +6465,7 @@
         <v>44</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>31</v>
@@ -6476,8 +6485,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79">
@@ -6491,22 +6500,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6521,10 +6530,10 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>31</v>
@@ -6544,8 +6553,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80">
@@ -6562,19 +6571,19 @@
         <v>163</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6589,10 +6598,10 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>31</v>
@@ -6612,8 +6621,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81">
@@ -6627,40 +6636,40 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N81" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="O81" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>31</v>
@@ -6680,8 +6689,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82">
@@ -6698,37 +6707,37 @@
         <v>48</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N82" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="O82" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>31</v>
@@ -6748,8 +6757,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83">
@@ -6766,19 +6775,19 @@
         <v>166</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6793,10 +6802,10 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P83" s="2" t="s">
         <v>31</v>
@@ -6811,13 +6820,13 @@
         <v>31</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84">
@@ -6831,22 +6840,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6861,10 +6870,10 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>31</v>
@@ -6879,7 +6888,7 @@
         <v>31</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="U84" s="1" t="s">
         <v>33</v>
@@ -6899,22 +6908,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -6929,10 +6938,10 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>31</v>
@@ -6952,8 +6961,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86">
@@ -6967,22 +6976,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I86" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7020,8 +7029,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -7035,23 +7044,23 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
       </c>
@@ -7065,11 +7074,11 @@
         <v>30</v>
       </c>
       <c r="N87" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O87" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O87" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="P87" s="2" t="s">
         <v>31</v>
       </c>
@@ -7088,8 +7097,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88">
@@ -7103,22 +7112,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7136,7 +7145,7 @@
         <v>44</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>31</v>
@@ -7156,8 +7165,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89">
@@ -7171,22 +7180,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7201,7 +7210,7 @@
         <v>30</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>44</v>
@@ -7224,8 +7233,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -7239,22 +7248,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7269,11 +7278,11 @@
         <v>30</v>
       </c>
       <c r="N90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O90" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O90" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="P90" s="2" t="s">
         <v>31</v>
       </c>
@@ -7292,8 +7301,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91">
@@ -7307,22 +7316,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7360,8 +7369,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92">
@@ -7375,22 +7384,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7408,7 +7417,7 @@
         <v>44</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>31</v>
@@ -7428,8 +7437,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -7443,22 +7452,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7476,7 +7485,7 @@
         <v>44</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>31</v>
@@ -7496,8 +7505,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>33</v>
+      <c r="V93" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -7511,22 +7520,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I94" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7564,8 +7573,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95">
@@ -7579,22 +7588,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7609,10 +7618,10 @@
         <v>30</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>31</v>
@@ -7632,8 +7641,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -7650,19 +7659,19 @@
         <v>184</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7677,10 +7686,10 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>31</v>
@@ -7700,8 +7709,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -7715,37 +7724,37 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N97" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>65</v>
@@ -7768,8 +7777,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98">
@@ -7783,22 +7792,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7813,10 +7822,10 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>31</v>
@@ -7836,8 +7845,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -7851,22 +7860,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -7881,7 +7890,7 @@
         <v>30</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>31</v>
@@ -7904,8 +7913,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100">
@@ -7919,22 +7928,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -7949,7 +7958,7 @@
         <v>30</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>31</v>
@@ -7987,22 +7996,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8017,10 +8026,10 @@
         <v>30</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="P101" s="2" t="s">
         <v>31</v>
@@ -8040,8 +8049,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="102">
@@ -8055,22 +8064,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8085,10 +8094,10 @@
         <v>30</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="P102" s="2" t="s">
         <v>31</v>
@@ -8108,8 +8117,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103">
@@ -8123,22 +8132,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8176,8 +8185,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="104">
@@ -8191,22 +8200,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8224,7 +8233,7 @@
         <v>44</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P104" s="2" t="s">
         <v>31</v>
@@ -8244,8 +8253,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -8259,22 +8268,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8292,7 +8301,7 @@
         <v>44</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>31</v>
@@ -8312,8 +8321,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106">
@@ -8327,22 +8336,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8357,10 +8366,10 @@
         <v>30</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>31</v>
@@ -8380,8 +8389,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="107">
@@ -8395,22 +8404,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8425,10 +8434,10 @@
         <v>30</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>31</v>
@@ -8448,8 +8457,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="108">
@@ -8463,22 +8472,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8493,7 +8502,7 @@
         <v>30</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>46</v>
@@ -8516,8 +8525,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="109">
@@ -8531,22 +8540,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8561,10 +8570,10 @@
         <v>30</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>31</v>
@@ -8599,22 +8608,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8632,7 +8641,7 @@
         <v>31</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>31</v>
@@ -8652,8 +8661,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="111">
@@ -8667,22 +8676,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="H111" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8700,7 +8709,7 @@
         <v>31</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>31</v>
@@ -8720,8 +8729,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="112">
@@ -8735,22 +8744,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="I112" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -8765,10 +8774,10 @@
         <v>30</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>31</v>
@@ -8788,8 +8797,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="113">
@@ -8803,22 +8812,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -8833,10 +8842,10 @@
         <v>30</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>31</v>
@@ -8856,8 +8865,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="114">
@@ -8871,22 +8880,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -8901,7 +8910,7 @@
         <v>30</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O114" s="2" t="s">
         <v>46</v>
@@ -8924,8 +8933,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="115">
@@ -8939,22 +8948,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -8969,10 +8978,10 @@
         <v>30</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="P115" s="2" t="s">
         <v>31</v>
@@ -8992,8 +9001,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="116">
@@ -9007,22 +9016,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9037,10 +9046,10 @@
         <v>30</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="P116" s="2" t="s">
         <v>31</v>
@@ -9060,8 +9069,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="117">
@@ -9075,40 +9084,40 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N117" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="O117" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>31</v>
@@ -9128,8 +9137,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>33</v>
+      <c r="V117" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="118">
@@ -9143,22 +9152,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9173,10 +9182,10 @@
         <v>30</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>31</v>
@@ -9196,8 +9205,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="119">
@@ -9211,22 +9220,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9241,10 +9250,10 @@
         <v>30</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>31</v>
@@ -9264,8 +9273,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="120">
@@ -9279,22 +9288,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
@@ -9309,10 +9318,10 @@
         <v>30</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P120" s="2" t="s">
         <v>31</v>
@@ -9347,22 +9356,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9377,10 +9386,10 @@
         <v>30</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>31</v>
@@ -9400,8 +9409,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="122">
@@ -9415,22 +9424,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -9445,7 +9454,7 @@
         <v>30</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>44</v>
@@ -9468,8 +9477,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="123">
@@ -9483,22 +9492,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="H123" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -9513,10 +9522,10 @@
         <v>30</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>31</v>
@@ -9536,8 +9545,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="124">
@@ -9551,22 +9560,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H124" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="I124" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -9581,10 +9590,10 @@
         <v>30</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>31</v>
@@ -9604,8 +9613,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>33</v>
+      <c r="V124" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="125">
@@ -9619,22 +9628,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -9649,10 +9658,10 @@
         <v>30</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>31</v>
@@ -9672,8 +9681,8 @@
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>33</v>
+      <c r="V125" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="126">
@@ -9687,22 +9696,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -9717,10 +9726,10 @@
         <v>30</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>31</v>
@@ -9740,8 +9749,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="127">
@@ -9755,22 +9764,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -9785,10 +9794,10 @@
         <v>30</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P127" s="2" t="s">
         <v>31</v>
@@ -9808,8 +9817,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="128">
@@ -9823,22 +9832,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
@@ -9853,10 +9862,10 @@
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>31</v>
@@ -9876,8 +9885,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="129">
@@ -9891,22 +9900,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -9921,10 +9930,10 @@
         <v>30</v>
       </c>
       <c r="N129" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O129" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="O129" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>31</v>
@@ -9959,22 +9968,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -9989,10 +9998,10 @@
         <v>30</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>31</v>
@@ -10012,8 +10021,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="131">
@@ -10027,22 +10036,22 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>28</v>
@@ -10057,10 +10066,10 @@
         <v>30</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>31</v>
@@ -10080,8 +10089,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="132">
@@ -10095,23 +10104,23 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F132" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="I132" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
       </c>
@@ -10125,10 +10134,10 @@
         <v>30</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>31</v>
@@ -10148,8 +10157,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="133">
@@ -10163,22 +10172,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="I133" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -10193,10 +10202,10 @@
         <v>30</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>31</v>
@@ -10216,8 +10225,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="134">
@@ -10231,23 +10240,23 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
       </c>
@@ -10261,7 +10270,7 @@
         <v>30</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O134" s="2" t="s">
         <v>31</v>
@@ -10284,8 +10293,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="135">
@@ -10299,22 +10308,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -10352,8 +10361,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="136">
@@ -10367,22 +10376,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -10420,8 +10429,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="V136" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="137">
@@ -10435,22 +10444,22 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -10465,7 +10474,7 @@
         <v>30</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O137" s="2" t="s">
         <v>31</v>
@@ -10488,8 +10497,8 @@
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="138">
@@ -10503,22 +10512,22 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>28</v>
@@ -10533,7 +10542,7 @@
         <v>30</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O138" s="2" t="s">
         <v>31</v>
@@ -10556,8 +10565,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="139">
@@ -10571,22 +10580,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>28</v>
@@ -10601,7 +10610,7 @@
         <v>30</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>31</v>
@@ -10624,8 +10633,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="140">
@@ -10639,22 +10648,22 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>28</v>
@@ -10669,10 +10678,10 @@
         <v>30</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P140" s="2" t="s">
         <v>31</v>
@@ -10692,8 +10701,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="141">
@@ -10707,22 +10716,22 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -10737,10 +10746,10 @@
         <v>30</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>31</v>
@@ -10760,8 +10769,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>33</v>
+      <c r="V141" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="142">
@@ -10775,22 +10784,22 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="H142" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>28</v>
@@ -10828,8 +10837,8 @@
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>33</v>
+      <c r="V142" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="143">
@@ -10843,22 +10852,22 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="I143" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>28</v>
@@ -10896,8 +10905,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="144">
@@ -10911,22 +10920,22 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>28</v>
@@ -10964,8 +10973,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="145">
@@ -10982,19 +10991,19 @@
         <v>28</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>28</v>
@@ -11032,8 +11041,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="146">
@@ -11047,22 +11056,22 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>28</v>
@@ -11100,8 +11109,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -11115,22 +11124,22 @@
         <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>28</v>
@@ -11145,10 +11154,10 @@
         <v>30</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="P147" s="2" t="s">
         <v>31</v>
@@ -11168,8 +11177,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="148">
@@ -11183,22 +11192,22 @@
         <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>28</v>
@@ -11213,10 +11222,10 @@
         <v>30</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="P148" s="2" t="s">
         <v>31</v>
@@ -11236,8 +11245,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="149">
@@ -11251,22 +11260,22 @@
         <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H149" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="I149" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>28</v>
@@ -11281,10 +11290,10 @@
         <v>30</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="P149" s="2" t="s">
         <v>31</v>
@@ -11304,8 +11313,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="150">
@@ -11319,23 +11328,23 @@
         <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I150" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="J150" s="2" t="s">
         <v>28</v>
       </c>
@@ -11349,10 +11358,10 @@
         <v>30</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="P150" s="2" t="s">
         <v>31</v>
@@ -11372,8 +11381,8 @@
       <c r="U150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>33</v>
+      <c r="V150" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="151">
@@ -11387,22 +11396,22 @@
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>28</v>
@@ -11417,10 +11426,10 @@
         <v>30</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="P151" s="2" t="s">
         <v>31</v>
@@ -11440,8 +11449,8 @@
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>33</v>
+      <c r="V151" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="152">
@@ -11455,22 +11464,22 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>28</v>
@@ -11485,10 +11494,10 @@
         <v>30</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P152" s="2" t="s">
         <v>31</v>
@@ -11500,7 +11509,7 @@
         <v>31</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="T152" s="2" t="s">
         <v>31</v>
@@ -11508,8 +11517,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="153">
@@ -11523,22 +11532,22 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>28</v>
@@ -11553,10 +11562,10 @@
         <v>30</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="P153" s="2" t="s">
         <v>31</v>
@@ -11568,7 +11577,7 @@
         <v>31</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="T153" s="2" t="s">
         <v>31</v>
@@ -11576,8 +11585,8 @@
       <c r="U153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>33</v>
+      <c r="V153" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="154">
@@ -11591,22 +11600,22 @@
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>28</v>
@@ -11621,10 +11630,10 @@
         <v>30</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="P154" s="2" t="s">
         <v>31</v>
@@ -11636,7 +11645,7 @@
         <v>31</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="T154" s="2" t="s">
         <v>31</v>
@@ -11644,8 +11653,8 @@
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>33</v>
+      <c r="V154" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="155">
@@ -11659,60 +11668,196 @@
         <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E155" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N155" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S155" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="T155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U155" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V155" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P156" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q156" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R156" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S156" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="T156" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V156" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I155" s="1" t="s">
+      <c r="F157" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L155" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M155" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N155" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O155" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P155" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q155" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R155" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S155" s="2" t="s">
+      <c r="H157" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N157" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P157" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q157" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R157" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S157" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T155" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U155" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V155" s="2" t="s">
+      <c r="T157" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V157" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-NRU.xlsx
+++ b/Excel-XLSX/UN-NRU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -120,13 +120,163 @@
     <t>-</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
     <t>72</t>
   </si>
   <si>
-    <t>3</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LEB</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
   </si>
   <si>
     <t>2014</t>
@@ -138,7 +288,139 @@
     <t>52</t>
   </si>
   <si>
-    <t>4</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>INS</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MYA</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NEP</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>2015</t>
@@ -147,16 +429,94 @@
     <t>41</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MLS</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
-    <t>6</t>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t>2017</t>
@@ -165,634 +525,298 @@
     <t>81</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>KUW</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>2018</t>
   </si>
   <si>
-    <t>8</t>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>10</t>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>BGD</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>INS</t>
-  </si>
-  <si>
-    <t>IDN</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>KUW</t>
-  </si>
-  <si>
-    <t>KWT</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>LEB</t>
-  </si>
-  <si>
-    <t>LBN</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>MLS</t>
-  </si>
-  <si>
-    <t>MYS</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>MYA</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>NEP</t>
-  </si>
-  <si>
-    <t>NPL</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
     <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1201,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V157"/>
+  <dimension ref="A1:V161"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1335,19 +1359,19 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -1365,7 +1389,7 @@
         <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>31</v>
@@ -1400,22 +1424,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1430,10 +1454,10 @@
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>31</v>
@@ -1468,22 +1492,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1498,10 +1522,10 @@
         <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>31</v>
@@ -1536,22 +1560,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1566,10 +1590,10 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>31</v>
@@ -1604,10 +1628,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
@@ -1634,10 +1658,10 @@
         <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>31</v>
@@ -1672,22 +1696,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1702,10 +1726,10 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>31</v>
@@ -1740,22 +1764,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1770,10 +1794,10 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>31</v>
@@ -1808,22 +1832,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1838,10 +1862,10 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>31</v>
@@ -1876,22 +1900,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1906,10 +1930,10 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>31</v>
@@ -1944,22 +1968,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1974,10 +1998,10 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>31</v>
@@ -2012,22 +2036,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -2045,7 +2069,7 @@
         <v>31</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>31</v>
@@ -2080,22 +2104,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -2110,10 +2134,10 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>31</v>
@@ -2148,22 +2172,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -2178,10 +2202,10 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>31</v>
@@ -2216,22 +2240,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -2246,10 +2270,10 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>31</v>
@@ -2284,22 +2308,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2314,10 +2338,10 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>31</v>
@@ -2352,22 +2376,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2382,10 +2406,10 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>31</v>
@@ -2420,22 +2444,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2450,10 +2474,10 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>31</v>
@@ -2488,22 +2512,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2518,10 +2542,10 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>31</v>
@@ -2556,22 +2580,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2586,10 +2610,10 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>31</v>
@@ -2624,22 +2648,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2654,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>31</v>
@@ -2692,22 +2716,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2725,7 +2749,7 @@
         <v>31</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>31</v>
@@ -2760,40 +2784,40 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>31</v>
@@ -2828,22 +2852,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2861,7 +2885,7 @@
         <v>31</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>31</v>
@@ -2896,22 +2920,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2926,10 +2950,10 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>31</v>
@@ -2964,22 +2988,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2994,10 +3018,10 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>31</v>
@@ -3032,22 +3056,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3062,10 +3086,10 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>31</v>
@@ -3100,22 +3124,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -3130,10 +3154,10 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>31</v>
@@ -3168,22 +3192,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -3198,10 +3222,10 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>31</v>
@@ -3236,40 +3260,40 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>31</v>
@@ -3304,22 +3328,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3334,10 +3358,10 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>31</v>
@@ -3372,22 +3396,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3402,10 +3426,10 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>31</v>
@@ -3440,22 +3464,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3470,7 +3494,7 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>31</v>
@@ -3508,22 +3532,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3538,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>31</v>
@@ -3576,22 +3600,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3606,10 +3630,10 @@
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>31</v>
@@ -3644,22 +3668,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3674,10 +3698,10 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>31</v>
@@ -3712,22 +3736,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3742,10 +3766,10 @@
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>31</v>
@@ -3780,22 +3804,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3810,10 +3834,10 @@
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>31</v>
@@ -3848,22 +3872,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3878,10 +3902,10 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>31</v>
@@ -3916,22 +3940,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3946,10 +3970,10 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>31</v>
@@ -3984,22 +4008,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4014,10 +4038,10 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>31</v>
@@ -4052,22 +4076,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4082,10 +4106,10 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>31</v>
@@ -4120,22 +4144,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4150,10 +4174,10 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>31</v>
@@ -4188,22 +4212,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4218,10 +4242,10 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>31</v>
@@ -4256,22 +4280,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4286,10 +4310,10 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>31</v>
@@ -4324,22 +4348,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4354,10 +4378,10 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>31</v>
@@ -4392,22 +4416,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4422,10 +4446,10 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>31</v>
@@ -4460,22 +4484,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4490,10 +4514,10 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>31</v>
@@ -4528,22 +4552,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4558,7 +4582,7 @@
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>31</v>
@@ -4596,22 +4620,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4626,10 +4650,10 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>31</v>
@@ -4664,22 +4688,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4694,10 +4718,10 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>31</v>
@@ -4732,22 +4756,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4762,10 +4786,10 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>31</v>
@@ -4800,22 +4824,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4830,10 +4854,10 @@
         <v>30</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>31</v>
@@ -4868,22 +4892,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4898,10 +4922,10 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>31</v>
@@ -4936,22 +4960,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4966,10 +4990,10 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>31</v>
@@ -5004,22 +5028,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5034,10 +5058,10 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>31</v>
@@ -5072,22 +5096,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="I58" s="1" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5102,10 +5126,10 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>31</v>
@@ -5140,22 +5164,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5170,10 +5194,10 @@
         <v>30</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>31</v>
@@ -5208,22 +5232,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5238,10 +5262,10 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>31</v>
@@ -5276,22 +5300,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5306,7 +5330,7 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>31</v>
@@ -5344,22 +5368,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5374,10 +5398,10 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>31</v>
@@ -5412,22 +5436,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5442,7 +5466,7 @@
         <v>30</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>31</v>
@@ -5480,22 +5504,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5510,10 +5534,10 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>31</v>
@@ -5548,22 +5572,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5578,10 +5602,10 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>31</v>
@@ -5616,22 +5640,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5646,10 +5670,10 @@
         <v>30</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>31</v>
@@ -5687,19 +5711,19 @@
         <v>32</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5714,10 +5738,10 @@
         <v>30</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>31</v>
@@ -5752,22 +5776,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="I68" s="1" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5782,10 +5806,10 @@
         <v>30</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>31</v>
@@ -5820,22 +5844,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5850,10 +5874,10 @@
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>31</v>
@@ -5888,22 +5912,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5918,7 +5942,7 @@
         <v>30</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>31</v>
@@ -5956,22 +5980,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -5986,10 +6010,10 @@
         <v>30</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>31</v>
@@ -6024,10 +6048,10 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>143</v>
@@ -6054,7 +6078,7 @@
         <v>30</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>31</v>
@@ -6092,22 +6116,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6122,7 +6146,7 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>31</v>
@@ -6160,22 +6184,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6190,10 +6214,10 @@
         <v>30</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>31</v>
@@ -6228,22 +6252,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6258,10 +6282,10 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>31</v>
@@ -6296,22 +6320,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6326,10 +6350,10 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>31</v>
@@ -6364,22 +6388,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6394,10 +6418,10 @@
         <v>30</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>31</v>
@@ -6432,22 +6456,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6462,10 +6486,10 @@
         <v>30</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>31</v>
@@ -6500,22 +6524,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6530,10 +6554,10 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>31</v>
@@ -6568,22 +6592,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6598,10 +6622,10 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>31</v>
@@ -6636,22 +6660,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6666,10 +6690,10 @@
         <v>30</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>31</v>
@@ -6704,40 +6728,40 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N82" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="O82" s="2" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>31</v>
@@ -6772,22 +6796,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6802,10 +6826,10 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="P83" s="2" t="s">
         <v>31</v>
@@ -6840,22 +6864,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6870,10 +6894,10 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>31</v>
@@ -6888,7 +6912,7 @@
         <v>31</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="U84" s="1" t="s">
         <v>33</v>
@@ -6908,22 +6932,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -6938,7 +6962,7 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>31</v>
@@ -6976,22 +7000,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7006,10 +7030,10 @@
         <v>30</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>31</v>
@@ -7044,22 +7068,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="H87" s="1" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7074,10 +7098,10 @@
         <v>30</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>31</v>
@@ -7112,22 +7136,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7142,10 +7166,10 @@
         <v>30</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>31</v>
@@ -7180,22 +7204,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7210,10 +7234,10 @@
         <v>30</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>31</v>
@@ -7248,22 +7272,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7278,10 +7302,10 @@
         <v>30</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>31</v>
@@ -7316,22 +7340,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7346,10 +7370,10 @@
         <v>30</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>31</v>
@@ -7384,22 +7408,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7414,10 +7438,10 @@
         <v>30</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>31</v>
@@ -7452,22 +7476,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7482,10 +7506,10 @@
         <v>30</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>31</v>
@@ -7520,22 +7544,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7550,10 +7574,10 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>31</v>
@@ -7588,22 +7612,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7618,10 +7642,10 @@
         <v>30</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>31</v>
@@ -7656,22 +7680,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7686,10 +7710,10 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>31</v>
@@ -7724,22 +7748,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -7754,10 +7778,10 @@
         <v>30</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>31</v>
@@ -7792,22 +7816,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7822,10 +7846,10 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>31</v>
@@ -7860,22 +7884,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -7890,10 +7914,10 @@
         <v>30</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>31</v>
@@ -7928,22 +7952,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -7958,10 +7982,10 @@
         <v>30</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="P100" s="2" t="s">
         <v>31</v>
@@ -7996,22 +8020,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8026,10 +8050,10 @@
         <v>30</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="P101" s="2" t="s">
         <v>31</v>
@@ -8064,22 +8088,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8094,10 +8118,10 @@
         <v>30</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="P102" s="2" t="s">
         <v>31</v>
@@ -8132,22 +8156,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8162,10 +8186,10 @@
         <v>30</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P103" s="2" t="s">
         <v>31</v>
@@ -8200,22 +8224,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H104" s="1" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8230,10 +8254,10 @@
         <v>30</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="P104" s="2" t="s">
         <v>31</v>
@@ -8268,22 +8292,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8298,10 +8322,10 @@
         <v>30</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>31</v>
@@ -8336,22 +8360,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8366,10 +8390,10 @@
         <v>30</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>31</v>
@@ -8404,22 +8428,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8437,7 +8461,7 @@
         <v>31</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>31</v>
@@ -8472,22 +8496,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8502,10 +8526,10 @@
         <v>30</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>31</v>
@@ -8540,22 +8564,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8570,10 +8594,10 @@
         <v>30</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>31</v>
@@ -8608,22 +8632,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8638,10 +8662,10 @@
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>31</v>
@@ -8653,7 +8677,7 @@
         <v>31</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="T110" s="2" t="s">
         <v>31</v>
@@ -8676,22 +8700,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8706,10 +8730,10 @@
         <v>30</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>31</v>
@@ -8744,22 +8768,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -8777,7 +8801,7 @@
         <v>31</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>31</v>
@@ -8812,22 +8836,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -8842,10 +8866,10 @@
         <v>30</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>31</v>
@@ -8880,22 +8904,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -8910,10 +8934,10 @@
         <v>30</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>31</v>
@@ -8948,22 +8972,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -8978,10 +9002,10 @@
         <v>30</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P115" s="2" t="s">
         <v>31</v>
@@ -9016,22 +9040,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9046,10 +9070,10 @@
         <v>30</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="P116" s="2" t="s">
         <v>31</v>
@@ -9084,22 +9108,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -9114,10 +9138,10 @@
         <v>30</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>31</v>
@@ -9152,22 +9176,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9182,10 +9206,10 @@
         <v>30</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>31</v>
@@ -9220,22 +9244,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>54</v>
+        <v>217</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9250,10 +9274,10 @@
         <v>30</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>31</v>
@@ -9288,22 +9312,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
@@ -9318,10 +9342,10 @@
         <v>30</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="P120" s="2" t="s">
         <v>31</v>
@@ -9356,22 +9380,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9386,10 +9410,10 @@
         <v>30</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>31</v>
@@ -9424,22 +9448,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -9454,10 +9478,10 @@
         <v>30</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>31</v>
@@ -9492,22 +9516,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -9522,10 +9546,10 @@
         <v>30</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>31</v>
@@ -9560,22 +9584,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -9590,10 +9614,10 @@
         <v>30</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>31</v>
@@ -9628,22 +9652,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -9658,10 +9682,10 @@
         <v>30</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>31</v>
@@ -9696,22 +9720,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -9726,10 +9750,10 @@
         <v>30</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>31</v>
@@ -9764,22 +9788,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -9794,10 +9818,10 @@
         <v>30</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="P127" s="2" t="s">
         <v>31</v>
@@ -9809,7 +9833,7 @@
         <v>31</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="T127" s="2" t="s">
         <v>31</v>
@@ -9832,22 +9856,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>214</v>
+        <v>84</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
@@ -9862,10 +9886,10 @@
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>31</v>
@@ -9900,22 +9924,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>54</v>
+        <v>217</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -9930,10 +9954,10 @@
         <v>30</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>31</v>
@@ -9968,22 +9992,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -9998,7 +10022,7 @@
         <v>30</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>31</v>
@@ -10036,22 +10060,22 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>28</v>
@@ -10066,10 +10090,10 @@
         <v>30</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>31</v>
@@ -10104,22 +10128,22 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
@@ -10134,10 +10158,10 @@
         <v>30</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>31</v>
@@ -10172,22 +10196,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>231</v>
+        <v>103</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -10202,10 +10226,10 @@
         <v>30</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>31</v>
@@ -10240,22 +10264,22 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>230</v>
+        <v>35</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>231</v>
+        <v>36</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
@@ -10270,10 +10294,10 @@
         <v>30</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="P134" s="2" t="s">
         <v>31</v>
@@ -10308,22 +10332,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="I135" s="1" t="s">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -10338,7 +10362,7 @@
         <v>30</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="O135" s="2" t="s">
         <v>31</v>
@@ -10376,22 +10400,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -10406,7 +10430,7 @@
         <v>30</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O136" s="2" t="s">
         <v>31</v>
@@ -10444,22 +10468,22 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -10474,7 +10498,7 @@
         <v>30</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="O137" s="2" t="s">
         <v>31</v>
@@ -10512,22 +10536,22 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>231</v>
+        <v>46</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>28</v>
@@ -10542,10 +10566,10 @@
         <v>30</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="P138" s="2" t="s">
         <v>31</v>
@@ -10560,7 +10584,7 @@
         <v>31</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="U138" s="1" t="s">
         <v>33</v>
@@ -10580,22 +10604,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>28</v>
@@ -10610,7 +10634,7 @@
         <v>30</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>31</v>
@@ -10648,22 +10672,22 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>28</v>
@@ -10678,7 +10702,7 @@
         <v>30</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="O140" s="2" t="s">
         <v>31</v>
@@ -10716,22 +10740,22 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -10746,10 +10770,10 @@
         <v>30</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>31</v>
@@ -10784,22 +10808,22 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>240</v>
+        <v>49</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>28</v>
@@ -10814,10 +10838,10 @@
         <v>30</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="P142" s="2" t="s">
         <v>31</v>
@@ -10852,22 +10876,22 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>28</v>
@@ -10882,10 +10906,10 @@
         <v>30</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P143" s="2" t="s">
         <v>31</v>
@@ -10920,22 +10944,22 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>241</v>
+        <v>126</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>28</v>
@@ -10950,10 +10974,10 @@
         <v>30</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P144" s="2" t="s">
         <v>31</v>
@@ -10965,7 +10989,7 @@
         <v>31</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="T144" s="2" t="s">
         <v>31</v>
@@ -10991,19 +11015,19 @@
         <v>28</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>28</v>
@@ -11018,10 +11042,10 @@
         <v>30</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P145" s="2" t="s">
         <v>31</v>
@@ -11056,22 +11080,22 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>28</v>
@@ -11089,7 +11113,7 @@
         <v>31</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P146" s="2" t="s">
         <v>31</v>
@@ -11124,22 +11148,22 @@
         <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>28</v>
@@ -11154,10 +11178,10 @@
         <v>30</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P147" s="2" t="s">
         <v>31</v>
@@ -11192,22 +11216,22 @@
         <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>28</v>
@@ -11222,10 +11246,10 @@
         <v>30</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="P148" s="2" t="s">
         <v>31</v>
@@ -11260,22 +11284,22 @@
         <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>28</v>
@@ -11290,10 +11314,10 @@
         <v>30</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="P149" s="2" t="s">
         <v>31</v>
@@ -11328,22 +11352,22 @@
         <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>28</v>
@@ -11358,10 +11382,10 @@
         <v>30</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="P150" s="2" t="s">
         <v>31</v>
@@ -11396,22 +11420,22 @@
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>250</v>
+        <v>113</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>28</v>
@@ -11426,10 +11450,10 @@
         <v>30</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="P151" s="2" t="s">
         <v>31</v>
@@ -11464,22 +11488,22 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>249</v>
+        <v>117</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>28</v>
@@ -11494,10 +11518,10 @@
         <v>30</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P152" s="2" t="s">
         <v>31</v>
@@ -11532,22 +11556,22 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E153" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="G153" s="1" t="s">
-        <v>248</v>
+        <v>50</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>249</v>
+        <v>51</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>28</v>
@@ -11562,10 +11586,10 @@
         <v>30</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P153" s="2" t="s">
         <v>31</v>
@@ -11600,22 +11624,22 @@
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>28</v>
@@ -11630,10 +11654,10 @@
         <v>30</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="P154" s="2" t="s">
         <v>31</v>
@@ -11645,7 +11669,7 @@
         <v>31</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="T154" s="2" t="s">
         <v>31</v>
@@ -11668,22 +11692,22 @@
         <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>248</v>
+        <v>126</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>249</v>
+        <v>127</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>28</v>
@@ -11698,7 +11722,7 @@
         <v>30</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O155" s="2" t="s">
         <v>31</v>
@@ -11713,7 +11737,7 @@
         <v>31</v>
       </c>
       <c r="S155" s="2" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="T155" s="2" t="s">
         <v>31</v>
@@ -11736,22 +11760,22 @@
         <v>22</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F156" s="2" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>28</v>
@@ -11766,10 +11790,10 @@
         <v>30</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="P156" s="2" t="s">
         <v>31</v>
@@ -11781,7 +11805,7 @@
         <v>31</v>
       </c>
       <c r="S156" s="2" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="T156" s="2" t="s">
         <v>31</v>
@@ -11807,19 +11831,19 @@
         <v>258</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>59</v>
+        <v>257</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>248</v>
+        <v>50</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>249</v>
+        <v>51</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>28</v>
@@ -11837,7 +11861,7 @@
         <v>31</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P157" s="2" t="s">
         <v>31</v>
@@ -11849,7 +11873,7 @@
         <v>31</v>
       </c>
       <c r="S157" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="T157" s="2" t="s">
         <v>31</v>
@@ -11858,6 +11882,278 @@
         <v>33</v>
       </c>
       <c r="V157" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V158" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U159" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V159" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V160" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V161" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-NRU.xlsx
+++ b/Excel-XLSX/UN-NRU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>4t20Wd</t>
+    <t>0xMeI3</t>
   </si>
   <si>
     <t>2012</t>
@@ -11929,7 +11929,7 @@
         <v>31</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="P158" s="2" t="s">
         <v>31</v>
@@ -11997,7 +11997,7 @@
         <v>31</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P159" s="2" t="s">
         <v>31</v>
@@ -12130,10 +12130,10 @@
         <v>30</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P161" s="2" t="s">
         <v>31</v>
